--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_T55.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ME</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2494417375588843</v>
+        <v>0.1779586292060669</v>
       </c>
       <c r="C2">
-        <v>2.023452408762298</v>
+        <v>2.019706927474283</v>
       </c>
       <c r="D2">
-        <v>16.82937196402936</v>
+        <v>17.42504876041586</v>
       </c>
       <c r="E2">
-        <v>4.102361754407985</v>
+        <v>4.174332133457502</v>
       </c>
       <c r="F2">
-        <v>4.109797885176562</v>
+        <v>4.222346974595365</v>
       </c>
       <c r="G2">
-        <v>137</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +452,45 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1091718934925698</v>
+        <v>0.2271760140433983</v>
       </c>
       <c r="C3">
-        <v>1.48118175044708</v>
+        <v>1.978660754480025</v>
       </c>
       <c r="D3">
-        <v>8.018822018912463</v>
+        <v>15.35741335774997</v>
       </c>
       <c r="E3">
-        <v>2.831752464272339</v>
+        <v>3.918853576972475</v>
       </c>
       <c r="F3">
-        <v>2.843350214786983</v>
+        <v>3.927054555281079</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.1196519597548314</v>
+      </c>
+      <c r="C4">
+        <v>1.272925636934957</v>
+      </c>
+      <c r="D4">
+        <v>5.710723481807822</v>
+      </c>
+      <c r="E4">
+        <v>2.389712008131486</v>
+      </c>
+      <c r="F4">
+        <v>2.404727861035995</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_T55.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full/ifoCAst_error_tables_full_T55.xlsx
@@ -429,22 +429,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1779586292060669</v>
+        <v>0.1586660023084538</v>
       </c>
       <c r="C2">
-        <v>2.019706927474283</v>
+        <v>1.986674183974745</v>
       </c>
       <c r="D2">
-        <v>17.42504876041586</v>
+        <v>17.01968672753467</v>
       </c>
       <c r="E2">
-        <v>4.174332133457502</v>
+        <v>4.125492301233233</v>
       </c>
       <c r="F2">
-        <v>4.222346974595365</v>
+        <v>4.172410827772781</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2271760140433983</v>
+        <v>0.2379729132671037</v>
       </c>
       <c r="C3">
-        <v>1.978660754480025</v>
+        <v>1.913853995852431</v>
       </c>
       <c r="D3">
-        <v>15.35741335774997</v>
+        <v>14.70470842293039</v>
       </c>
       <c r="E3">
-        <v>3.918853576972475</v>
+        <v>3.834671879435109</v>
       </c>
       <c r="F3">
-        <v>3.927054555281079</v>
+        <v>3.841122596751489</v>
       </c>
       <c r="G3">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1196519597548314</v>
+        <v>0.1721244478012908</v>
       </c>
       <c r="C4">
-        <v>1.272925636934957</v>
+        <v>1.272346930490598</v>
       </c>
       <c r="D4">
-        <v>5.710723481807822</v>
+        <v>5.520684595974761</v>
       </c>
       <c r="E4">
-        <v>2.389712008131486</v>
+        <v>2.34961371207583</v>
       </c>
       <c r="F4">
-        <v>2.404727861035995</v>
+        <v>2.3602199723419</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
